--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NORTH_CAROLINA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NORTH_CAROLINA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1577"/>
+  <dimension ref="A1:D1571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C39">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C44">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C66">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C72">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C80">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C81">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C114">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C116">
@@ -2237,7 +2237,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C142">
@@ -2424,7 +2424,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C160">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C186">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C189">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C194">
@@ -3032,12 +3032,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C202">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C206">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C211">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C215">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C218">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C224">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C232">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C247">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C257">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C259">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C269">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C279">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C286">
@@ -4142,7 +4142,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C287">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C297">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C298">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C299">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C307">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C311">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C319">
@@ -4615,7 +4615,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C323">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C325">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C327">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C328">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C330">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C335">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C344">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C347">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C350">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C355">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C356">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C362">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C366">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C367">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C373">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C374">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C376">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C379">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C382">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C395">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C397">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C399">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C401">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C406">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C418">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C425">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C430">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C434">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C437">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C440">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C445">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C446">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C447">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C448">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C451">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C452">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C455">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C460">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C461">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C465">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C468">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C471">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C478">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C479">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C482">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C483">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C488">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C494">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C507">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C512">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C513">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C516">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C521">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C524">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C529">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C531">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C534">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C536">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C539">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C540">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C549">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C556">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C557">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C563">
@@ -8054,7 +8054,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C586">
@@ -8847,7 +8847,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C647">
@@ -9164,7 +9164,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C671">
@@ -9281,7 +9281,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C680">
@@ -9346,7 +9346,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C685">
@@ -9359,7 +9359,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C686">
@@ -9437,7 +9437,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C692">
@@ -9494,7 +9494,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C696">
@@ -9533,7 +9533,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C699">
@@ -9624,7 +9624,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C706">
@@ -9850,7 +9850,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C723">
@@ -9928,7 +9928,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C729">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C734">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C736">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C742">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C746">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C756">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C757">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C758">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C769">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C772">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C774">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C776">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C778">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C780">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C793">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C805">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C820">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C826">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C866">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C878">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C882">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C897">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C911">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C928">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C929">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C944">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C964">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C993">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1008">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1009">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1011">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1012">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1013">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1015">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1016">
@@ -13677,7 +13677,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1018">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1020">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1022">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1025">
@@ -14020,7 +14020,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1043">
@@ -14254,7 +14254,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1061">
@@ -14397,7 +14397,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1072">
@@ -14410,7 +14410,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1073">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1076">
@@ -14488,7 +14488,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1079">
@@ -14592,7 +14592,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1087">
@@ -14683,7 +14683,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1094">
@@ -14943,7 +14943,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1114">
@@ -14956,7 +14956,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1115">
@@ -14995,7 +14995,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1118">
@@ -15086,7 +15086,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1125">
@@ -15151,7 +15151,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1130">
@@ -15177,7 +15177,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1132">
@@ -15242,7 +15242,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1137">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1168">
@@ -15676,7 +15676,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1170">
@@ -15754,7 +15754,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1176">
@@ -15767,7 +15767,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1177">
@@ -15806,7 +15806,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1180">
@@ -15832,7 +15832,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1182">
@@ -16011,7 +16011,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1195">
@@ -16024,7 +16024,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1196">
@@ -16102,7 +16102,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1202">
@@ -16219,7 +16219,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1211">
@@ -16297,7 +16297,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1217">
@@ -16375,7 +16375,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1223">
@@ -16401,7 +16401,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1225">
@@ -16479,7 +16479,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1231">
@@ -16531,7 +16531,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1235">
@@ -16544,7 +16544,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1236">
@@ -16557,7 +16557,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1237">
@@ -16570,7 +16570,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1238">
@@ -16583,7 +16583,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1239">
@@ -16983,7 +16983,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1269">
@@ -17170,7 +17170,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1283">
@@ -17643,7 +17643,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1319">
@@ -17804,7 +17804,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1331">
@@ -17856,7 +17856,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1335">
@@ -17882,7 +17882,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1337">
@@ -17921,7 +17921,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1340">
@@ -17934,7 +17934,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1341">
@@ -17960,7 +17960,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1343">
@@ -18212,7 +18212,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1362">
@@ -18264,7 +18264,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1366">
@@ -18381,7 +18381,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1375">
@@ -18446,7 +18446,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1380">
@@ -18628,7 +18628,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1394">
@@ -18836,7 +18836,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1410">
@@ -18849,7 +18849,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1411">
@@ -18901,7 +18901,7 @@
     <row r="1415">
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1415">
@@ -18914,7 +18914,7 @@
     <row r="1416">
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1416">
@@ -18927,7 +18927,7 @@
     <row r="1417">
       <c r="B1417" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1417">
@@ -19044,7 +19044,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1426">
@@ -19070,7 +19070,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1428">
@@ -19109,7 +19109,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1431">
@@ -19161,7 +19161,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1435">
@@ -19200,7 +19200,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1438">
@@ -19252,7 +19252,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1442">
@@ -19369,7 +19369,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1451">
@@ -19382,7 +19382,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1452">
@@ -19434,7 +19434,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1456">
@@ -19538,7 +19538,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1464">
@@ -19590,7 +19590,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1468">
@@ -19915,7 +19915,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1493">
@@ -20097,7 +20097,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1507">
@@ -20227,7 +20227,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1517">
@@ -20445,7 +20445,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1533">
@@ -20471,7 +20471,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1535">
@@ -20484,7 +20484,7 @@
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1536">
@@ -20588,7 +20588,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1544">
@@ -20718,7 +20718,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1554">
@@ -20848,7 +20848,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1564">
@@ -20947,41 +20947,6 @@
       </c>
       <c r="D1571">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
